--- a/VersionRecords/Version 5.3.2.1 20170310/版本Bug和特性计划及评审表v5.3.2.1.xlsx
+++ b/VersionRecords/Version 5.3.2.1 20170310/版本Bug和特性计划及评审表v5.3.2.1.xlsx
@@ -1,24 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr showInkAnnotation="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andubu/MogoDoc/Mogo_Doc/VersionRecords/Version 5.3.2.1 20170310/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="01 版本5.3.4 新特性|Fix Bug" sheetId="1" r:id="rId4"/>
-    <sheet name="02 定时器" sheetId="2" r:id="rId5"/>
-    <sheet name="03 上线执行顺序" sheetId="3" r:id="rId6"/>
-    <sheet name="041 配置文件（测试环境）" sheetId="4" r:id="rId7"/>
-    <sheet name="042 配置文件（预发布环境）" sheetId="5" r:id="rId8"/>
-    <sheet name="043 配置文件（生产环境）" sheetId="6" r:id="rId9"/>
-    <sheet name="044 配置文件（公测环境）" sheetId="7" r:id="rId10"/>
-    <sheet name="05 数据修复" sheetId="8" r:id="rId11"/>
+    <sheet name="01 版本5.3.4 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="02 定时器" sheetId="2" r:id="rId2"/>
+    <sheet name="03 上线执行顺序" sheetId="3" r:id="rId3"/>
+    <sheet name="041 配置文件（测试环境）" sheetId="4" r:id="rId4"/>
+    <sheet name="042 配置文件（预发布环境）" sheetId="5" r:id="rId5"/>
+    <sheet name="043 配置文件（生产环境）" sheetId="6" r:id="rId6"/>
+    <sheet name="044 配置文件（公测环境）" sheetId="7" r:id="rId7"/>
+    <sheet name="05 数据修复" sheetId="8" r:id="rId8"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="118">
   <si>
     <t>No</t>
   </si>
@@ -145,7 +158,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
@@ -165,7 +178,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
@@ -363,28 +376,44 @@
   <si>
     <t>修正负责人</t>
   </si>
+  <si>
+    <t>MD组</t>
+  </si>
+  <si>
+    <t>5.3.2</t>
+  </si>
+  <si>
+    <t>bs</t>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+  </si>
+  <si>
+    <t>sysconfig.zmxy.gatewayUrl=https://zmopenapi.zmxy.com.cn/openapi.do
+sysconfig.zmxy.appId=1001708
+sysconfig.zmxy.privateKey=MIIEvgIBADANBgkqhkiG9w0BAQEFAASCBKgwggSkAgEAAoIBAQDMbf0SF0fgenwQKEUX0bPVv1VXkC/36JGvyA2ZZpMhIxLSbXmutS0Fbm3XUfWhHlz3O6b2BmRRaFDsImMUK5LivBesdtZOdSQLQ/+XSJOuRHy6B16JkoIshLkSJT28lnVnXZmgySxY+rEiwNPxxj20duv4FQPgYTDK/vcSdsPLISp0Xu7+ESen5/fo5JS2lXaXfgsQb+N3Lm9zOBXa2yJnDANSGQ1znwiKrwk2YSjxolrRtWUrHUksarmtcJSv841FyvQVajV6j8kM2CgkARjDKnZEGnzsOgKfVD85KJw6s5G4e3656EVnrjA0asah5BVCjdyDTBPMHM7M6QLqyZKJAgMBAAECggEBALuWqkUxi8lXXATPjydeTLF1k3B4ZSwOA7HT13bOg3BC6QCjaKeCpT94p96P3N/uJszPtlPIZcG2AZvNqjFWEsFwbCDcI6d3Io4b5awC81FUk0d5f6yp/j2vxMv71Hz7a9xgLZs3PzSfRnBnlZUknna9MadCUX5ScR21fS86QExiDNfxcYRE0viqUG2LiwfrtRvi3eMUZPXPcJmilNxbGOGF490ucgKcUQqi8kbqLRllgavf/p1lmyrS77Dw6kkQIM6YpLO4nR8wTHWoyi625UCAjE1VJUWVsdGH3BzZj/pKXmwkGFDiq7073JclTvOS1TqAxNse+h50h4BqFWKaaikCgYEA6EORivrbL88HhhEGVdiNxYBdwkACoLcgYx75kzltxU0vL2EFzwsuBbr+AzhVQeteEeeVp0vJtlyThORyxosuanLwimnv2AMcbzo52AoputurkxZtgziE5WCrO5A7s8avsEi6NcrXT19+Gilf9Cssq9I+vVu7C0s4TctsYQljJYsCgYEA4VI54Az1Jc58B2NMSIqMsG++8Gy0OzBq7EUtpqPG9Qa6mvAEpWlO90nDACTeBZLaC7Hd1au/zELGnoSW4JWilnirWgupJzE5HklHG3IMNAtzOFvoX46xr4xiNPodK0CxWpFqi3tPIDWizRfQNooEnqKtKtX9DOhSyo+D2CcYMrsCgYAYYf+Fd5BLFJDVojPoDzPS6AbvvYiJFrBvt3C74+uCKvgpISZa9fF+6IKCFAffQ7Y8avNq/KnQWyeha9ogvbvBsQ9PeI+VPb5ebt5jr61x0F3SsygL/oL1EZDoT9v0o4cOGpRx0TmJO50hYfaQy3eFEi1D871PEjZ29EQMa8/cwQKBgQCvUHsXiP11XSPD288O4j51SX0XNH1HUHThQTIz5lp3a7TluLrkuPtoDUxcYFMfoxNk5g/koK2rEInZ7PA37jWDPoCUn14N0I7QsdNR13sHQ6FyyJAVScGXBXOkJLdtX/ier2ZnAJqgRRtW2KB4zwqpI4n5OmaaFGnWkbPUCxcY4QKBgEay2X6WJ+d2QizMv6QOtSz1nmg5nsKAdLcQHO0ir02BlRp8yFBA8nnbJGyNUH0DHjB1dvDaGGna/Zd2u0TT5VRr4cKcvM8vYHwGabPcPLmjsvSxiyNmUvYMNHFtOZFmBp+jVx0upA5iy448e0Dn1GZN2ZvAk5cziTzx3xMerRM9
+sysconfig.zmxy.zhimaPublicKey=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAshVdeYHvFwZdF08NUVYe+PqGA+QiUBLdf4w7XDMVOQDSXFmkk6zxRRlHZ97OS/NuajlayX2LTjDdPf/omkWXLqHoxHKlimeiLUvb/8KqkiOeExF1d6zlbOzcIoafxC6dzrFckVYLEWbiEGlSDgxOxU3Q8QuDbwosRCMRMDP6vZLrr6HKtAcyfQ5ZyDrAJd2hN4eeJF/6GbP9rdBf43KYaCyDH8FWciw4oCA3i17KXr81eRlNEGaDQ9DiROFGR2QDAVuzdD0NYBDBxUaTw/4B+I+Y1iqb0EU4PqAOaDjpwn0NOXoW+ARlKNDVQOXSHQI1PSxcBOW61AdLRU4GHSYfNQIDAQAB</t>
+  </si>
+  <si>
+    <t>芝麻反欺诈接口</t>
+  </si>
+  <si>
+    <t>生产环境</t>
+  </si>
+  <si>
+    <t>李亚林</t>
+  </si>
+  <si>
+    <t>田东兴</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-  </numFmts>
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="宋体"/>
     </font>
@@ -394,7 +423,7 @@
       <name val="Microsoft YaHei"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
@@ -432,6 +461,16 @@
     <font>
       <sz val="11"/>
       <color indexed="19"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
     </font>
   </fonts>
@@ -479,7 +518,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -911,330 +950,406 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="98">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="20" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="31" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="9" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffd99594"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ff333333"/>
-      <rgbColor rgb="ffbfbfbf"/>
-      <rgbColor rgb="ffb6dde8"/>
-      <rgbColor rgb="ffa5b6ca"/>
-      <rgbColor rgb="ffd2dae4"/>
-      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFD99594"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FFBFBFBF"/>
+      <rgbColor rgb="FFB6DDE8"/>
+      <rgbColor rgb="FFA5B6CA"/>
+      <rgbColor rgb="FFD2DAE4"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -1436,7 +1551,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1455,7 +1570,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1485,7 +1600,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1511,7 +1626,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1537,7 +1652,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1563,7 +1678,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1589,7 +1704,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1615,7 +1730,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1641,7 +1756,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1667,7 +1782,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1693,7 +1808,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1706,9 +1821,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1725,7 +1846,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1744,7 +1865,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1770,7 +1891,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1796,7 +1917,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1822,7 +1943,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1848,7 +1969,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1874,7 +1995,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1900,7 +2021,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1926,7 +2047,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1952,7 +2073,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1978,7 +2099,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1991,9 +2112,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2007,7 +2134,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2026,7 +2153,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2056,7 +2183,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2082,7 +2209,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2108,7 +2235,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2134,7 +2261,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2160,7 +2287,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2186,7 +2313,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2212,7 +2339,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2238,7 +2365,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2264,7 +2391,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2277,175 +2404,178 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:W146"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV146"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="54.9531" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="55" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.25" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.75" style="1" customWidth="1"/>
+    <col min="12" max="14" width="11.6640625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="9.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="30.5" style="1" customWidth="1"/>
     <col min="20" max="20" width="12" style="1" customWidth="1"/>
     <col min="21" max="21" width="17" style="1" customWidth="1"/>
-    <col min="22" max="22" width="14.25" style="1" customWidth="1"/>
-    <col min="23" max="23" width="41.75" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.1640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="41.6640625" style="1" customWidth="1"/>
     <col min="24" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="3">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="3">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s" s="2">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" ht="16" customHeight="1">
+    <row r="2" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="E2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="G2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="7">
         <v>42795</v>
       </c>
-      <c r="I2" t="s" s="5">
+      <c r="I2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="7">
         <v>42795</v>
       </c>
       <c r="K2" s="4"/>
-      <c r="L2" t="s" s="8">
+      <c r="L2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s" s="5">
+      <c r="M2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N2" t="s" s="5">
+      <c r="N2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O2" t="s" s="8">
+      <c r="O2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P2" t="s" s="8">
+      <c r="P2" s="8" t="s">
         <v>33</v>
       </c>
       <c r="Q2" s="7">
         <v>42803</v>
       </c>
-      <c r="R2" t="s" s="9">
+      <c r="R2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="S2" t="s" s="10">
+      <c r="S2" s="10" t="s">
         <v>35</v>
       </c>
       <c r="T2" s="11"/>
@@ -2453,57 +2583,57 @@
       <c r="V2" s="12"/>
       <c r="W2" s="13"/>
     </row>
-    <row r="3" ht="16" customHeight="1">
+    <row r="3" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="15">
+      <c r="B3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s" s="15">
+      <c r="C3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s" s="16">
+      <c r="D3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E3" t="s" s="15">
+      <c r="E3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F3" t="s" s="15">
+      <c r="F3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s" s="15">
+      <c r="G3" s="15" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="17">
         <v>42795</v>
       </c>
-      <c r="I3" t="s" s="15">
+      <c r="I3" s="15" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="17">
         <v>42795</v>
       </c>
       <c r="K3" s="14"/>
-      <c r="L3" t="s" s="18">
+      <c r="L3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="M3" t="s" s="15">
+      <c r="M3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N3" t="s" s="15">
+      <c r="N3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O3" t="s" s="18">
+      <c r="O3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="P3" t="s" s="18">
+      <c r="P3" s="18" t="s">
         <v>33</v>
       </c>
       <c r="Q3" s="17">
         <v>42803</v>
       </c>
-      <c r="R3" t="s" s="9">
+      <c r="R3" s="9" t="s">
         <v>34</v>
       </c>
       <c r="S3" s="19"/>
@@ -2514,60 +2644,60 @@
       <c r="V3" s="21"/>
       <c r="W3" s="22"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="15">
+      <c r="B4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s" s="15">
+      <c r="C4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s" s="16">
+      <c r="D4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E4" t="s" s="15">
+      <c r="E4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s" s="15">
+      <c r="F4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G4" t="s" s="15">
+      <c r="G4" s="15" t="s">
         <v>28</v>
       </c>
       <c r="H4" s="17">
         <v>42797</v>
       </c>
-      <c r="I4" t="s" s="15">
+      <c r="I4" s="15" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="17">
         <v>42797</v>
       </c>
       <c r="K4" s="14"/>
-      <c r="L4" t="s" s="15">
+      <c r="L4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="M4" t="s" s="15">
+      <c r="M4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N4" t="s" s="15">
+      <c r="N4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O4" t="s" s="18">
+      <c r="O4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="P4" t="s" s="18">
+      <c r="P4" s="18" t="s">
         <v>33</v>
       </c>
       <c r="Q4" s="17">
         <v>42803</v>
       </c>
-      <c r="R4" t="s" s="23">
+      <c r="R4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="S4" t="s" s="24">
+      <c r="S4" s="24" t="s">
         <v>41</v>
       </c>
       <c r="T4" s="21"/>
@@ -2575,60 +2705,60 @@
       <c r="V4" s="21"/>
       <c r="W4" s="22"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="15">
+      <c r="B5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s" s="15">
+      <c r="C5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s" s="16">
+      <c r="D5" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s" s="15">
+      <c r="E5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s" s="15">
+      <c r="F5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G5" t="s" s="15">
+      <c r="G5" s="15" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="17">
         <v>42797</v>
       </c>
-      <c r="I5" t="s" s="15">
+      <c r="I5" s="15" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="17">
         <v>42797</v>
       </c>
       <c r="K5" s="14"/>
-      <c r="L5" t="s" s="15">
+      <c r="L5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="M5" t="s" s="15">
+      <c r="M5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N5" t="s" s="15">
+      <c r="N5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O5" t="s" s="18">
+      <c r="O5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="P5" t="s" s="18">
+      <c r="P5" s="18" t="s">
         <v>33</v>
       </c>
       <c r="Q5" s="17">
         <v>42803</v>
       </c>
-      <c r="R5" t="s" s="23">
+      <c r="R5" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="S5" t="s" s="25">
+      <c r="S5" s="25" t="s">
         <v>45</v>
       </c>
       <c r="T5" s="21"/>
@@ -2636,60 +2766,60 @@
       <c r="V5" s="21"/>
       <c r="W5" s="22"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="15">
+      <c r="B6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s" s="15">
+      <c r="C6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s" s="16">
+      <c r="D6" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s" s="15">
+      <c r="E6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s" s="15">
+      <c r="F6" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G6" t="s" s="15">
+      <c r="G6" s="15" t="s">
         <v>28</v>
       </c>
       <c r="H6" s="17">
         <v>42981</v>
       </c>
-      <c r="I6" t="s" s="15">
+      <c r="I6" s="15" t="s">
         <v>28</v>
       </c>
       <c r="J6" s="17">
         <v>42981</v>
       </c>
       <c r="K6" s="14"/>
-      <c r="L6" t="s" s="15">
+      <c r="L6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="M6" t="s" s="15">
+      <c r="M6" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="N6" t="s" s="15">
+      <c r="N6" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="O6" t="s" s="18">
+      <c r="O6" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="P6" t="s" s="18">
+      <c r="P6" s="18" t="s">
         <v>33</v>
       </c>
       <c r="Q6" s="17">
         <v>42803</v>
       </c>
-      <c r="R6" t="s" s="23">
+      <c r="R6" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="S6" t="s" s="26">
+      <c r="S6" s="26" t="s">
         <v>52</v>
       </c>
       <c r="T6" s="21"/>
@@ -2697,60 +2827,60 @@
       <c r="V6" s="21"/>
       <c r="W6" s="22"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="15">
+      <c r="B7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s" s="15">
+      <c r="C7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s" s="16">
+      <c r="D7" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="15">
+      <c r="E7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s" s="15">
+      <c r="F7" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G7" t="s" s="15">
+      <c r="G7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="17">
         <v>42981</v>
       </c>
-      <c r="I7" t="s" s="15">
+      <c r="I7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="J7" s="17">
         <v>42981</v>
       </c>
       <c r="K7" s="14"/>
-      <c r="L7" t="s" s="15">
+      <c r="L7" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="M7" t="s" s="15">
+      <c r="M7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="N7" t="s" s="15">
+      <c r="N7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="O7" t="s" s="18">
+      <c r="O7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="P7" t="s" s="18">
+      <c r="P7" s="18" t="s">
         <v>33</v>
       </c>
       <c r="Q7" s="17">
         <v>42803</v>
       </c>
-      <c r="R7" t="s" s="18">
+      <c r="R7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="S7" t="s" s="27">
+      <c r="S7" s="27" t="s">
         <v>54</v>
       </c>
       <c r="T7" s="28"/>
@@ -2758,57 +2888,57 @@
       <c r="V7" s="21"/>
       <c r="W7" s="22"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="15">
+      <c r="B8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s" s="15">
+      <c r="C8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s" s="16">
+      <c r="D8" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E8" t="s" s="15">
+      <c r="E8" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F8" t="s" s="15">
+      <c r="F8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G8" t="s" s="15">
+      <c r="G8" s="15" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="17">
         <v>42981</v>
       </c>
-      <c r="I8" t="s" s="15">
+      <c r="I8" s="15" t="s">
         <v>28</v>
       </c>
       <c r="J8" s="17">
         <v>42981</v>
       </c>
       <c r="K8" s="14"/>
-      <c r="L8" t="s" s="15">
+      <c r="L8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="M8" t="s" s="15">
+      <c r="M8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="N8" t="s" s="15">
+      <c r="N8" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="O8" t="s" s="18">
+      <c r="O8" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="P8" t="s" s="18">
+      <c r="P8" s="18" t="s">
         <v>33</v>
       </c>
       <c r="Q8" s="17">
         <v>42803</v>
       </c>
-      <c r="R8" t="s" s="23">
+      <c r="R8" s="23" t="s">
         <v>34</v>
       </c>
       <c r="S8" s="29"/>
@@ -2819,60 +2949,60 @@
       <c r="V8" s="21"/>
       <c r="W8" s="22"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row r="9" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="15">
+      <c r="B9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s" s="15">
+      <c r="C9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s" s="16">
+      <c r="D9" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E9" t="s" s="15">
+      <c r="E9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F9" t="s" s="15">
+      <c r="F9" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G9" t="s" s="15">
+      <c r="G9" s="15" t="s">
         <v>28</v>
       </c>
       <c r="H9" s="17">
         <v>42981</v>
       </c>
-      <c r="I9" t="s" s="15">
+      <c r="I9" s="15" t="s">
         <v>28</v>
       </c>
       <c r="J9" s="17">
         <v>42981</v>
       </c>
       <c r="K9" s="14"/>
-      <c r="L9" t="s" s="15">
+      <c r="L9" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="M9" t="s" s="15">
+      <c r="M9" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="N9" t="s" s="15">
+      <c r="N9" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="O9" t="s" s="18">
+      <c r="O9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="P9" t="s" s="18">
+      <c r="P9" s="18" t="s">
         <v>33</v>
       </c>
       <c r="Q9" s="17">
         <v>42803</v>
       </c>
-      <c r="R9" t="s" s="23">
+      <c r="R9" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="S9" t="s" s="31">
+      <c r="S9" s="31" t="s">
         <v>60</v>
       </c>
       <c r="T9" s="32"/>
@@ -2880,60 +3010,60 @@
       <c r="V9" s="21"/>
       <c r="W9" s="22"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
+    <row r="10" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
         <v>8</v>
       </c>
-      <c r="B10" t="s" s="15">
+      <c r="B10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s" s="15">
+      <c r="C10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s" s="16">
+      <c r="D10" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E10" t="s" s="15">
+      <c r="E10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F10" t="s" s="15">
+      <c r="F10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G10" t="s" s="15">
+      <c r="G10" s="15" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="17">
         <v>42981</v>
       </c>
-      <c r="I10" t="s" s="15">
+      <c r="I10" s="15" t="s">
         <v>28</v>
       </c>
       <c r="J10" s="17">
         <v>42981</v>
       </c>
       <c r="K10" s="14"/>
-      <c r="L10" t="s" s="15">
+      <c r="L10" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="M10" t="s" s="15">
+      <c r="M10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="N10" t="s" s="15">
+      <c r="N10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="O10" t="s" s="18">
+      <c r="O10" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="P10" t="s" s="18">
+      <c r="P10" s="18" t="s">
         <v>33</v>
       </c>
       <c r="Q10" s="17">
         <v>42803</v>
       </c>
-      <c r="R10" t="s" s="23">
+      <c r="R10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="S10" t="s" s="33">
+      <c r="S10" s="33" t="s">
         <v>60</v>
       </c>
       <c r="T10" s="34"/>
@@ -2941,7 +3071,7 @@
       <c r="V10" s="21"/>
       <c r="W10" s="22"/>
     </row>
-    <row r="11" ht="16" customHeight="1">
+    <row r="11" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -2966,7 +3096,7 @@
       <c r="V11" s="21"/>
       <c r="W11" s="22"/>
     </row>
-    <row r="12" ht="16" customHeight="1">
+    <row r="12" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -2991,7 +3121,7 @@
       <c r="V12" s="21"/>
       <c r="W12" s="22"/>
     </row>
-    <row r="13" ht="16" customHeight="1">
+    <row r="13" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -3016,7 +3146,7 @@
       <c r="V13" s="21"/>
       <c r="W13" s="22"/>
     </row>
-    <row r="14" ht="16" customHeight="1">
+    <row r="14" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -3041,7 +3171,7 @@
       <c r="V14" s="21"/>
       <c r="W14" s="22"/>
     </row>
-    <row r="15" ht="16" customHeight="1">
+    <row r="15" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -3066,7 +3196,7 @@
       <c r="V15" s="21"/>
       <c r="W15" s="22"/>
     </row>
-    <row r="16" ht="16" customHeight="1">
+    <row r="16" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -3091,7 +3221,7 @@
       <c r="V16" s="21"/>
       <c r="W16" s="22"/>
     </row>
-    <row r="17" ht="16" customHeight="1">
+    <row r="17" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -3116,7 +3246,7 @@
       <c r="V17" s="21"/>
       <c r="W17" s="22"/>
     </row>
-    <row r="18" ht="16" customHeight="1">
+    <row r="18" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -3141,7 +3271,7 @@
       <c r="V18" s="21"/>
       <c r="W18" s="22"/>
     </row>
-    <row r="19" ht="16" customHeight="1">
+    <row r="19" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -3166,7 +3296,7 @@
       <c r="V19" s="21"/>
       <c r="W19" s="22"/>
     </row>
-    <row r="20" ht="16" customHeight="1">
+    <row r="20" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -3191,7 +3321,7 @@
       <c r="V20" s="21"/>
       <c r="W20" s="22"/>
     </row>
-    <row r="21" ht="16" customHeight="1">
+    <row r="21" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -3216,7 +3346,7 @@
       <c r="V21" s="21"/>
       <c r="W21" s="22"/>
     </row>
-    <row r="22" ht="16" customHeight="1">
+    <row r="22" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -3241,7 +3371,7 @@
       <c r="V22" s="21"/>
       <c r="W22" s="22"/>
     </row>
-    <row r="23" ht="16" customHeight="1">
+    <row r="23" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -3266,7 +3396,7 @@
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
     </row>
-    <row r="24" ht="16" customHeight="1">
+    <row r="24" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -3291,7 +3421,7 @@
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
     </row>
-    <row r="25" ht="16" customHeight="1">
+    <row r="25" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -3316,7 +3446,7 @@
       <c r="V25" s="21"/>
       <c r="W25" s="21"/>
     </row>
-    <row r="26" ht="16" customHeight="1">
+    <row r="26" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -3341,7 +3471,7 @@
       <c r="V26" s="21"/>
       <c r="W26" s="21"/>
     </row>
-    <row r="27" ht="16" customHeight="1">
+    <row r="27" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -3366,7 +3496,7 @@
       <c r="V27" s="21"/>
       <c r="W27" s="21"/>
     </row>
-    <row r="28" ht="16" customHeight="1">
+    <row r="28" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -3391,7 +3521,7 @@
       <c r="V28" s="21"/>
       <c r="W28" s="21"/>
     </row>
-    <row r="29" ht="16" customHeight="1">
+    <row r="29" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -3416,7 +3546,7 @@
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
     </row>
-    <row r="30" ht="16" customHeight="1">
+    <row r="30" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -3441,7 +3571,7 @@
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
     </row>
-    <row r="31" ht="16" customHeight="1">
+    <row r="31" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -3466,7 +3596,7 @@
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
     </row>
-    <row r="32" ht="16" customHeight="1">
+    <row r="32" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -3491,7 +3621,7 @@
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
     </row>
-    <row r="33" ht="16" customHeight="1">
+    <row r="33" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -3516,7 +3646,7 @@
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
     </row>
-    <row r="34" ht="16" customHeight="1">
+    <row r="34" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -3541,7 +3671,7 @@
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
     </row>
-    <row r="35" ht="16" customHeight="1">
+    <row r="35" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -3566,7 +3696,7 @@
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
     </row>
-    <row r="36" ht="16" customHeight="1">
+    <row r="36" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
@@ -3591,7 +3721,7 @@
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
     </row>
-    <row r="37" ht="16" customHeight="1">
+    <row r="37" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -3616,7 +3746,7 @@
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
     </row>
-    <row r="38" ht="16" customHeight="1">
+    <row r="38" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -3641,7 +3771,7 @@
       <c r="V38" s="21"/>
       <c r="W38" s="21"/>
     </row>
-    <row r="39" ht="16" customHeight="1">
+    <row r="39" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -3666,7 +3796,7 @@
       <c r="V39" s="21"/>
       <c r="W39" s="21"/>
     </row>
-    <row r="40" ht="16" customHeight="1">
+    <row r="40" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -3691,7 +3821,7 @@
       <c r="V40" s="21"/>
       <c r="W40" s="21"/>
     </row>
-    <row r="41" ht="16" customHeight="1">
+    <row r="41" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -3716,7 +3846,7 @@
       <c r="V41" s="21"/>
       <c r="W41" s="21"/>
     </row>
-    <row r="42" ht="16" customHeight="1">
+    <row r="42" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -3741,7 +3871,7 @@
       <c r="V42" s="21"/>
       <c r="W42" s="21"/>
     </row>
-    <row r="43" ht="16" customHeight="1">
+    <row r="43" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -3766,7 +3896,7 @@
       <c r="V43" s="21"/>
       <c r="W43" s="21"/>
     </row>
-    <row r="44" ht="16" customHeight="1">
+    <row r="44" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -3791,7 +3921,7 @@
       <c r="V44" s="21"/>
       <c r="W44" s="21"/>
     </row>
-    <row r="45" ht="16" customHeight="1">
+    <row r="45" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -3816,7 +3946,7 @@
       <c r="V45" s="21"/>
       <c r="W45" s="21"/>
     </row>
-    <row r="46" ht="16" customHeight="1">
+    <row r="46" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="21"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -3841,7 +3971,7 @@
       <c r="V46" s="21"/>
       <c r="W46" s="21"/>
     </row>
-    <row r="47" ht="16" customHeight="1">
+    <row r="47" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -3866,7 +3996,7 @@
       <c r="V47" s="21"/>
       <c r="W47" s="21"/>
     </row>
-    <row r="48" ht="16" customHeight="1">
+    <row r="48" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
@@ -3891,7 +4021,7 @@
       <c r="V48" s="21"/>
       <c r="W48" s="21"/>
     </row>
-    <row r="49" ht="16" customHeight="1">
+    <row r="49" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -3916,7 +4046,7 @@
       <c r="V49" s="21"/>
       <c r="W49" s="21"/>
     </row>
-    <row r="50" ht="16" customHeight="1">
+    <row r="50" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -3941,7 +4071,7 @@
       <c r="V50" s="21"/>
       <c r="W50" s="21"/>
     </row>
-    <row r="51" ht="16" customHeight="1">
+    <row r="51" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -3966,7 +4096,7 @@
       <c r="V51" s="21"/>
       <c r="W51" s="21"/>
     </row>
-    <row r="52" ht="16" customHeight="1">
+    <row r="52" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -3991,7 +4121,7 @@
       <c r="V52" s="21"/>
       <c r="W52" s="21"/>
     </row>
-    <row r="53" ht="16" customHeight="1">
+    <row r="53" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -4016,7 +4146,7 @@
       <c r="V53" s="21"/>
       <c r="W53" s="21"/>
     </row>
-    <row r="54" ht="16" customHeight="1">
+    <row r="54" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -4041,7 +4171,7 @@
       <c r="V54" s="21"/>
       <c r="W54" s="21"/>
     </row>
-    <row r="55" ht="16" customHeight="1">
+    <row r="55" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -4066,7 +4196,7 @@
       <c r="V55" s="21"/>
       <c r="W55" s="21"/>
     </row>
-    <row r="56" ht="14.45" customHeight="1">
+    <row r="56" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -4091,7 +4221,7 @@
       <c r="V56" s="21"/>
       <c r="W56" s="21"/>
     </row>
-    <row r="57" ht="14.45" customHeight="1">
+    <row r="57" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -4116,7 +4246,7 @@
       <c r="V57" s="21"/>
       <c r="W57" s="21"/>
     </row>
-    <row r="58" ht="14.45" customHeight="1">
+    <row r="58" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -4141,7 +4271,7 @@
       <c r="V58" s="21"/>
       <c r="W58" s="21"/>
     </row>
-    <row r="59" ht="14.45" customHeight="1">
+    <row r="59" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -4166,7 +4296,7 @@
       <c r="V59" s="21"/>
       <c r="W59" s="21"/>
     </row>
-    <row r="60" ht="14.45" customHeight="1">
+    <row r="60" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -4191,7 +4321,7 @@
       <c r="V60" s="21"/>
       <c r="W60" s="21"/>
     </row>
-    <row r="61" ht="14.45" customHeight="1">
+    <row r="61" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -4216,7 +4346,7 @@
       <c r="V61" s="21"/>
       <c r="W61" s="21"/>
     </row>
-    <row r="62" ht="14.45" customHeight="1">
+    <row r="62" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="21"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
@@ -4241,7 +4371,7 @@
       <c r="V62" s="21"/>
       <c r="W62" s="21"/>
     </row>
-    <row r="63" ht="14.45" customHeight="1">
+    <row r="63" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -4266,7 +4396,7 @@
       <c r="V63" s="21"/>
       <c r="W63" s="21"/>
     </row>
-    <row r="64" ht="14.45" customHeight="1">
+    <row r="64" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -4291,7 +4421,7 @@
       <c r="V64" s="21"/>
       <c r="W64" s="21"/>
     </row>
-    <row r="65" ht="14.45" customHeight="1">
+    <row r="65" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -4316,7 +4446,7 @@
       <c r="V65" s="21"/>
       <c r="W65" s="21"/>
     </row>
-    <row r="66" ht="14.45" customHeight="1">
+    <row r="66" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="21"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -4341,7 +4471,7 @@
       <c r="V66" s="21"/>
       <c r="W66" s="21"/>
     </row>
-    <row r="67" ht="14.45" customHeight="1">
+    <row r="67" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -4366,7 +4496,7 @@
       <c r="V67" s="21"/>
       <c r="W67" s="21"/>
     </row>
-    <row r="68" ht="14.45" customHeight="1">
+    <row r="68" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="21"/>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
@@ -4391,7 +4521,7 @@
       <c r="V68" s="21"/>
       <c r="W68" s="21"/>
     </row>
-    <row r="69" ht="14.45" customHeight="1">
+    <row r="69" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="21"/>
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
@@ -4416,7 +4546,7 @@
       <c r="V69" s="21"/>
       <c r="W69" s="21"/>
     </row>
-    <row r="70" ht="14.45" customHeight="1">
+    <row r="70" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -4441,7 +4571,7 @@
       <c r="V70" s="21"/>
       <c r="W70" s="21"/>
     </row>
-    <row r="71" ht="14.45" customHeight="1">
+    <row r="71" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="21"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -4466,7 +4596,7 @@
       <c r="V71" s="21"/>
       <c r="W71" s="21"/>
     </row>
-    <row r="72" ht="14.45" customHeight="1">
+    <row r="72" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -4491,7 +4621,7 @@
       <c r="V72" s="21"/>
       <c r="W72" s="21"/>
     </row>
-    <row r="73" ht="14.45" customHeight="1">
+    <row r="73" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -4516,7 +4646,7 @@
       <c r="V73" s="21"/>
       <c r="W73" s="21"/>
     </row>
-    <row r="74" ht="14.45" customHeight="1">
+    <row r="74" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -4541,7 +4671,7 @@
       <c r="V74" s="21"/>
       <c r="W74" s="21"/>
     </row>
-    <row r="75" ht="14.45" customHeight="1">
+    <row r="75" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -4566,7 +4696,7 @@
       <c r="V75" s="21"/>
       <c r="W75" s="21"/>
     </row>
-    <row r="76" ht="14.45" customHeight="1">
+    <row r="76" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="21"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -4591,7 +4721,7 @@
       <c r="V76" s="21"/>
       <c r="W76" s="21"/>
     </row>
-    <row r="77" ht="14.45" customHeight="1">
+    <row r="77" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
@@ -4616,7 +4746,7 @@
       <c r="V77" s="21"/>
       <c r="W77" s="21"/>
     </row>
-    <row r="78" ht="14.45" customHeight="1">
+    <row r="78" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
@@ -4641,7 +4771,7 @@
       <c r="V78" s="21"/>
       <c r="W78" s="21"/>
     </row>
-    <row r="79" ht="14.45" customHeight="1">
+    <row r="79" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="21"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -4666,7 +4796,7 @@
       <c r="V79" s="21"/>
       <c r="W79" s="21"/>
     </row>
-    <row r="80" ht="14.45" customHeight="1">
+    <row r="80" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
@@ -4691,7 +4821,7 @@
       <c r="V80" s="21"/>
       <c r="W80" s="21"/>
     </row>
-    <row r="81" ht="14.45" customHeight="1">
+    <row r="81" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="21"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
@@ -4716,7 +4846,7 @@
       <c r="V81" s="21"/>
       <c r="W81" s="21"/>
     </row>
-    <row r="82" ht="14.45" customHeight="1">
+    <row r="82" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="21"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -4741,7 +4871,7 @@
       <c r="V82" s="21"/>
       <c r="W82" s="21"/>
     </row>
-    <row r="83" ht="14.45" customHeight="1">
+    <row r="83" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="21"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
@@ -4766,7 +4896,7 @@
       <c r="V83" s="21"/>
       <c r="W83" s="21"/>
     </row>
-    <row r="84" ht="14.45" customHeight="1">
+    <row r="84" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="21"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
@@ -4791,7 +4921,7 @@
       <c r="V84" s="21"/>
       <c r="W84" s="21"/>
     </row>
-    <row r="85" ht="14.45" customHeight="1">
+    <row r="85" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -4816,7 +4946,7 @@
       <c r="V85" s="21"/>
       <c r="W85" s="21"/>
     </row>
-    <row r="86" ht="14.45" customHeight="1">
+    <row r="86" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="21"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -4841,7 +4971,7 @@
       <c r="V86" s="21"/>
       <c r="W86" s="21"/>
     </row>
-    <row r="87" ht="14.45" customHeight="1">
+    <row r="87" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="21"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -4866,7 +4996,7 @@
       <c r="V87" s="21"/>
       <c r="W87" s="21"/>
     </row>
-    <row r="88" ht="14.45" customHeight="1">
+    <row r="88" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="21"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -4891,7 +5021,7 @@
       <c r="V88" s="21"/>
       <c r="W88" s="21"/>
     </row>
-    <row r="89" ht="14.45" customHeight="1">
+    <row r="89" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="21"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -4916,7 +5046,7 @@
       <c r="V89" s="21"/>
       <c r="W89" s="21"/>
     </row>
-    <row r="90" ht="14.45" customHeight="1">
+    <row r="90" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="21"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -4941,7 +5071,7 @@
       <c r="V90" s="21"/>
       <c r="W90" s="21"/>
     </row>
-    <row r="91" ht="14.45" customHeight="1">
+    <row r="91" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="21"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -4966,7 +5096,7 @@
       <c r="V91" s="21"/>
       <c r="W91" s="21"/>
     </row>
-    <row r="92" ht="14.45" customHeight="1">
+    <row r="92" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="21"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
@@ -4991,7 +5121,7 @@
       <c r="V92" s="21"/>
       <c r="W92" s="21"/>
     </row>
-    <row r="93" ht="14.45" customHeight="1">
+    <row r="93" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="21"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
@@ -5016,7 +5146,7 @@
       <c r="V93" s="21"/>
       <c r="W93" s="21"/>
     </row>
-    <row r="94" ht="14.45" customHeight="1">
+    <row r="94" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="21"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -5041,7 +5171,7 @@
       <c r="V94" s="21"/>
       <c r="W94" s="21"/>
     </row>
-    <row r="95" ht="14.45" customHeight="1">
+    <row r="95" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="21"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -5066,7 +5196,7 @@
       <c r="V95" s="21"/>
       <c r="W95" s="21"/>
     </row>
-    <row r="96" ht="14.45" customHeight="1">
+    <row r="96" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="21"/>
       <c r="B96" s="21"/>
       <c r="C96" s="21"/>
@@ -5091,7 +5221,7 @@
       <c r="V96" s="21"/>
       <c r="W96" s="21"/>
     </row>
-    <row r="97" ht="14.45" customHeight="1">
+    <row r="97" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="21"/>
       <c r="B97" s="21"/>
       <c r="C97" s="21"/>
@@ -5116,7 +5246,7 @@
       <c r="V97" s="21"/>
       <c r="W97" s="21"/>
     </row>
-    <row r="98" ht="14.45" customHeight="1">
+    <row r="98" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -5141,7 +5271,7 @@
       <c r="V98" s="21"/>
       <c r="W98" s="21"/>
     </row>
-    <row r="99" ht="14.45" customHeight="1">
+    <row r="99" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="21"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
@@ -5166,7 +5296,7 @@
       <c r="V99" s="21"/>
       <c r="W99" s="21"/>
     </row>
-    <row r="100" ht="14.45" customHeight="1">
+    <row r="100" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="21"/>
       <c r="B100" s="21"/>
       <c r="C100" s="21"/>
@@ -5191,7 +5321,7 @@
       <c r="V100" s="21"/>
       <c r="W100" s="21"/>
     </row>
-    <row r="101" ht="14.45" customHeight="1">
+    <row r="101" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="21"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -5216,7 +5346,7 @@
       <c r="V101" s="21"/>
       <c r="W101" s="21"/>
     </row>
-    <row r="102" ht="14.45" customHeight="1">
+    <row r="102" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="21"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -5241,7 +5371,7 @@
       <c r="V102" s="21"/>
       <c r="W102" s="21"/>
     </row>
-    <row r="103" ht="14.45" customHeight="1">
+    <row r="103" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="21"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -5266,7 +5396,7 @@
       <c r="V103" s="21"/>
       <c r="W103" s="21"/>
     </row>
-    <row r="104" ht="14.45" customHeight="1">
+    <row r="104" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="21"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -5291,7 +5421,7 @@
       <c r="V104" s="21"/>
       <c r="W104" s="21"/>
     </row>
-    <row r="105" ht="14.45" customHeight="1">
+    <row r="105" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="21"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -5316,7 +5446,7 @@
       <c r="V105" s="21"/>
       <c r="W105" s="21"/>
     </row>
-    <row r="106" ht="14.45" customHeight="1">
+    <row r="106" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="21"/>
       <c r="B106" s="21"/>
       <c r="C106" s="21"/>
@@ -5341,7 +5471,7 @@
       <c r="V106" s="21"/>
       <c r="W106" s="21"/>
     </row>
-    <row r="107" ht="14.45" customHeight="1">
+    <row r="107" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="21"/>
       <c r="B107" s="21"/>
       <c r="C107" s="21"/>
@@ -5366,7 +5496,7 @@
       <c r="V107" s="21"/>
       <c r="W107" s="21"/>
     </row>
-    <row r="108" ht="14.45" customHeight="1">
+    <row r="108" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="21"/>
       <c r="B108" s="21"/>
       <c r="C108" s="21"/>
@@ -5391,7 +5521,7 @@
       <c r="V108" s="21"/>
       <c r="W108" s="21"/>
     </row>
-    <row r="109" ht="14.45" customHeight="1">
+    <row r="109" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="21"/>
       <c r="B109" s="21"/>
       <c r="C109" s="21"/>
@@ -5416,7 +5546,7 @@
       <c r="V109" s="21"/>
       <c r="W109" s="21"/>
     </row>
-    <row r="110" ht="14.45" customHeight="1">
+    <row r="110" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="21"/>
       <c r="B110" s="21"/>
       <c r="C110" s="21"/>
@@ -5441,7 +5571,7 @@
       <c r="V110" s="21"/>
       <c r="W110" s="21"/>
     </row>
-    <row r="111" ht="14.45" customHeight="1">
+    <row r="111" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="21"/>
       <c r="B111" s="21"/>
       <c r="C111" s="21"/>
@@ -5466,7 +5596,7 @@
       <c r="V111" s="21"/>
       <c r="W111" s="21"/>
     </row>
-    <row r="112" ht="14.45" customHeight="1">
+    <row r="112" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="21"/>
       <c r="B112" s="21"/>
       <c r="C112" s="21"/>
@@ -5491,7 +5621,7 @@
       <c r="V112" s="42"/>
       <c r="W112" s="21"/>
     </row>
-    <row r="113" ht="14.45" customHeight="1">
+    <row r="113" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="21"/>
       <c r="B113" s="21"/>
       <c r="C113" s="21"/>
@@ -5516,7 +5646,7 @@
       <c r="V113" s="45"/>
       <c r="W113" s="21"/>
     </row>
-    <row r="114" ht="14.45" customHeight="1">
+    <row r="114" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="21"/>
       <c r="B114" s="21"/>
       <c r="C114" s="21"/>
@@ -5541,7 +5671,7 @@
       <c r="V114" s="45"/>
       <c r="W114" s="21"/>
     </row>
-    <row r="115" ht="14.45" customHeight="1">
+    <row r="115" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="21"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
@@ -5566,7 +5696,7 @@
       <c r="V115" s="45"/>
       <c r="W115" s="21"/>
     </row>
-    <row r="116" ht="14.45" customHeight="1">
+    <row r="116" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="21"/>
       <c r="B116" s="21"/>
       <c r="C116" s="21"/>
@@ -5591,7 +5721,7 @@
       <c r="V116" s="45"/>
       <c r="W116" s="21"/>
     </row>
-    <row r="117" ht="14.45" customHeight="1">
+    <row r="117" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="21"/>
       <c r="B117" s="21"/>
       <c r="C117" s="21"/>
@@ -5616,7 +5746,7 @@
       <c r="V117" s="45"/>
       <c r="W117" s="21"/>
     </row>
-    <row r="118" ht="14.45" customHeight="1">
+    <row r="118" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="21"/>
       <c r="B118" s="21"/>
       <c r="C118" s="21"/>
@@ -5641,7 +5771,7 @@
       <c r="V118" s="45"/>
       <c r="W118" s="21"/>
     </row>
-    <row r="119" ht="14.45" customHeight="1">
+    <row r="119" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="21"/>
       <c r="B119" s="21"/>
       <c r="C119" s="21"/>
@@ -5666,7 +5796,7 @@
       <c r="V119" s="45"/>
       <c r="W119" s="21"/>
     </row>
-    <row r="120" ht="14.45" customHeight="1">
+    <row r="120" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="21"/>
       <c r="B120" s="21"/>
       <c r="C120" s="21"/>
@@ -5691,7 +5821,7 @@
       <c r="V120" s="45"/>
       <c r="W120" s="21"/>
     </row>
-    <row r="121" ht="14.45" customHeight="1">
+    <row r="121" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="21"/>
       <c r="B121" s="21"/>
       <c r="C121" s="21"/>
@@ -5716,7 +5846,7 @@
       <c r="V121" s="45"/>
       <c r="W121" s="21"/>
     </row>
-    <row r="122" ht="14.45" customHeight="1">
+    <row r="122" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="21"/>
       <c r="B122" s="21"/>
       <c r="C122" s="21"/>
@@ -5741,7 +5871,7 @@
       <c r="V122" s="45"/>
       <c r="W122" s="21"/>
     </row>
-    <row r="123" ht="14.45" customHeight="1">
+    <row r="123" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="21"/>
       <c r="B123" s="21"/>
       <c r="C123" s="21"/>
@@ -5766,7 +5896,7 @@
       <c r="V123" s="45"/>
       <c r="W123" s="21"/>
     </row>
-    <row r="124" ht="14.45" customHeight="1">
+    <row r="124" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="21"/>
       <c r="B124" s="21"/>
       <c r="C124" s="21"/>
@@ -5791,7 +5921,7 @@
       <c r="V124" s="45"/>
       <c r="W124" s="21"/>
     </row>
-    <row r="125" ht="14.45" customHeight="1">
+    <row r="125" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="21"/>
       <c r="B125" s="21"/>
       <c r="C125" s="21"/>
@@ -5816,7 +5946,7 @@
       <c r="V125" s="45"/>
       <c r="W125" s="21"/>
     </row>
-    <row r="126" ht="14.45" customHeight="1">
+    <row r="126" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="21"/>
       <c r="B126" s="21"/>
       <c r="C126" s="21"/>
@@ -5841,7 +5971,7 @@
       <c r="V126" s="45"/>
       <c r="W126" s="21"/>
     </row>
-    <row r="127" ht="14.45" customHeight="1">
+    <row r="127" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="21"/>
       <c r="B127" s="21"/>
       <c r="C127" s="21"/>
@@ -5866,7 +5996,7 @@
       <c r="V127" s="45"/>
       <c r="W127" s="21"/>
     </row>
-    <row r="128" ht="14.45" customHeight="1">
+    <row r="128" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="21"/>
       <c r="B128" s="21"/>
       <c r="C128" s="21"/>
@@ -5891,7 +6021,7 @@
       <c r="V128" s="45"/>
       <c r="W128" s="21"/>
     </row>
-    <row r="129" ht="14.45" customHeight="1">
+    <row r="129" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="21"/>
       <c r="B129" s="21"/>
       <c r="C129" s="21"/>
@@ -5916,7 +6046,7 @@
       <c r="V129" s="45"/>
       <c r="W129" s="21"/>
     </row>
-    <row r="130" ht="14.45" customHeight="1">
+    <row r="130" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="21"/>
       <c r="B130" s="21"/>
       <c r="C130" s="21"/>
@@ -5941,7 +6071,7 @@
       <c r="V130" s="45"/>
       <c r="W130" s="21"/>
     </row>
-    <row r="131" ht="14.45" customHeight="1">
+    <row r="131" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="21"/>
       <c r="B131" s="21"/>
       <c r="C131" s="21"/>
@@ -5966,7 +6096,7 @@
       <c r="V131" s="45"/>
       <c r="W131" s="21"/>
     </row>
-    <row r="132" ht="14.45" customHeight="1">
+    <row r="132" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="21"/>
       <c r="B132" s="21"/>
       <c r="C132" s="21"/>
@@ -5991,7 +6121,7 @@
       <c r="V132" s="45"/>
       <c r="W132" s="21"/>
     </row>
-    <row r="133" ht="14.45" customHeight="1">
+    <row r="133" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="21"/>
       <c r="B133" s="21"/>
       <c r="C133" s="21"/>
@@ -6016,7 +6146,7 @@
       <c r="V133" s="45"/>
       <c r="W133" s="21"/>
     </row>
-    <row r="134" ht="14.45" customHeight="1">
+    <row r="134" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="21"/>
       <c r="B134" s="21"/>
       <c r="C134" s="21"/>
@@ -6041,7 +6171,7 @@
       <c r="V134" s="45"/>
       <c r="W134" s="21"/>
     </row>
-    <row r="135" ht="14.45" customHeight="1">
+    <row r="135" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="21"/>
       <c r="B135" s="21"/>
       <c r="C135" s="21"/>
@@ -6066,7 +6196,7 @@
       <c r="V135" s="45"/>
       <c r="W135" s="21"/>
     </row>
-    <row r="136" ht="14.45" customHeight="1">
+    <row r="136" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="21"/>
       <c r="B136" s="21"/>
       <c r="C136" s="21"/>
@@ -6091,7 +6221,7 @@
       <c r="V136" s="45"/>
       <c r="W136" s="21"/>
     </row>
-    <row r="137" ht="14.45" customHeight="1">
+    <row r="137" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="21"/>
       <c r="B137" s="21"/>
       <c r="C137" s="21"/>
@@ -6116,7 +6246,7 @@
       <c r="V137" s="45"/>
       <c r="W137" s="21"/>
     </row>
-    <row r="138" ht="14.45" customHeight="1">
+    <row r="138" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="21"/>
       <c r="B138" s="21"/>
       <c r="C138" s="21"/>
@@ -6141,7 +6271,7 @@
       <c r="V138" s="45"/>
       <c r="W138" s="21"/>
     </row>
-    <row r="139" ht="14.45" customHeight="1">
+    <row r="139" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="21"/>
       <c r="B139" s="21"/>
       <c r="C139" s="21"/>
@@ -6166,7 +6296,7 @@
       <c r="V139" s="45"/>
       <c r="W139" s="21"/>
     </row>
-    <row r="140" ht="14.45" customHeight="1">
+    <row r="140" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="21"/>
       <c r="B140" s="21"/>
       <c r="C140" s="21"/>
@@ -6191,7 +6321,7 @@
       <c r="V140" s="45"/>
       <c r="W140" s="21"/>
     </row>
-    <row r="141" ht="14.45" customHeight="1">
+    <row r="141" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="21"/>
       <c r="B141" s="21"/>
       <c r="C141" s="21"/>
@@ -6216,7 +6346,7 @@
       <c r="V141" s="45"/>
       <c r="W141" s="21"/>
     </row>
-    <row r="142" ht="14.45" customHeight="1">
+    <row r="142" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="21"/>
       <c r="B142" s="21"/>
       <c r="C142" s="21"/>
@@ -6241,7 +6371,7 @@
       <c r="V142" s="45"/>
       <c r="W142" s="21"/>
     </row>
-    <row r="143" ht="14.45" customHeight="1">
+    <row r="143" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="21"/>
       <c r="B143" s="21"/>
       <c r="C143" s="21"/>
@@ -6266,7 +6396,7 @@
       <c r="V143" s="45"/>
       <c r="W143" s="21"/>
     </row>
-    <row r="144" ht="14.45" customHeight="1">
+    <row r="144" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="21"/>
       <c r="B144" s="21"/>
       <c r="C144" s="21"/>
@@ -6291,7 +6421,7 @@
       <c r="V144" s="45"/>
       <c r="W144" s="21"/>
     </row>
-    <row r="145" ht="14.45" customHeight="1">
+    <row r="145" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="21"/>
       <c r="B145" s="21"/>
       <c r="C145" s="21"/>
@@ -6316,7 +6446,7 @@
       <c r="V145" s="45"/>
       <c r="W145" s="21"/>
     </row>
-    <row r="146" ht="14.45" customHeight="1">
+    <row r="146" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="21"/>
       <c r="B146" s="21"/>
       <c r="C146" s="21"/>
@@ -6342,12 +6472,13 @@
       <c r="W146" s="21"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="S4" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="S5" r:id="rId2" location="" tooltip="" display=""/>
+    <hyperlink ref="S4" r:id="rId1"/>
+    <hyperlink ref="S5" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.69930599999999998" right="0.69930599999999998" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6355,91 +6486,89 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8" style="46" customWidth="1"/>
-    <col min="2" max="2" width="8" style="46" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="46" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="46" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="46" customWidth="1"/>
-    <col min="6" max="6" width="7.25" style="46" customWidth="1"/>
-    <col min="7" max="7" width="7.25" style="46" customWidth="1"/>
+    <col min="1" max="2" width="8" style="46" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="46" customWidth="1"/>
+    <col min="6" max="7" width="7.1640625" style="46" customWidth="1"/>
     <col min="8" max="8" width="8" style="46" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="46" customWidth="1"/>
-    <col min="10" max="10" width="44.25" style="46" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="44.1640625" style="46" customWidth="1"/>
     <col min="11" max="11" width="25.5" style="46" customWidth="1"/>
     <col min="12" max="12" width="23.5" style="46" customWidth="1"/>
-    <col min="13" max="13" width="54.75" style="46" customWidth="1"/>
+    <col min="13" max="13" width="54.6640625" style="46" customWidth="1"/>
     <col min="14" max="14" width="8" style="46" customWidth="1"/>
-    <col min="15" max="15" width="15.25" style="46" customWidth="1"/>
-    <col min="16" max="16" width="14.25" style="46" customWidth="1"/>
-    <col min="17" max="17" width="31.25" style="46" customWidth="1"/>
-    <col min="18" max="18" width="4.75" style="46" customWidth="1"/>
-    <col min="19" max="256" width="26.25" style="46" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" style="46" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" style="46" customWidth="1"/>
+    <col min="17" max="17" width="31.1640625" style="46" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" style="46" customWidth="1"/>
+    <col min="19" max="256" width="26.1640625" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1">
-      <c r="A1" t="s" s="47">
+    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B1" t="s" s="48">
+      <c r="B1" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C1" t="s" s="48">
+      <c r="C1" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="D1" t="s" s="48">
+      <c r="D1" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="E1" t="s" s="48">
+      <c r="E1" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s" s="48">
+      <c r="F1" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="G1" t="s" s="48">
+      <c r="G1" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="H1" t="s" s="48">
+      <c r="H1" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="I1" t="s" s="48">
+      <c r="I1" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="J1" t="s" s="48">
+      <c r="J1" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="K1" t="s" s="49">
+      <c r="K1" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="L1" t="s" s="50">
+      <c r="L1" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="M1" t="s" s="50">
+      <c r="M1" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="N1" t="s" s="48">
+      <c r="N1" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="O1" t="s" s="48">
+      <c r="O1" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="P1" t="s" s="48">
+      <c r="P1" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="Q1" t="s" s="48">
+      <c r="Q1" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="R1" t="s" s="48">
+      <c r="R1" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" ht="30" customHeight="1">
+    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="51"/>
       <c r="B2" s="52"/>
       <c r="C2" s="52"/>
@@ -6459,7 +6588,7 @@
       <c r="Q2" s="52"/>
       <c r="R2" s="52"/>
     </row>
-    <row r="3" ht="30" customHeight="1">
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="51"/>
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
@@ -6479,7 +6608,7 @@
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
     </row>
-    <row r="4" ht="30" customHeight="1">
+    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
@@ -6499,7 +6628,7 @@
       <c r="Q4" s="52"/>
       <c r="R4" s="52"/>
     </row>
-    <row r="5" ht="14.45" customHeight="1">
+    <row r="5" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="57"/>
       <c r="B5" s="57"/>
       <c r="C5" s="57"/>
@@ -6519,7 +6648,7 @@
       <c r="Q5" s="57"/>
       <c r="R5" s="57"/>
     </row>
-    <row r="6" ht="14.45" customHeight="1">
+    <row r="6" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="58"/>
       <c r="B6" s="58"/>
       <c r="C6" s="58"/>
@@ -6539,7 +6668,7 @@
       <c r="Q6" s="58"/>
       <c r="R6" s="58"/>
     </row>
-    <row r="7" ht="14.45" customHeight="1">
+    <row r="7" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="58"/>
       <c r="B7" s="58"/>
       <c r="C7" s="58"/>
@@ -6559,7 +6688,7 @@
       <c r="Q7" s="58"/>
       <c r="R7" s="58"/>
     </row>
-    <row r="8" ht="14.45" customHeight="1">
+    <row r="8" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="58"/>
       <c r="B8" s="58"/>
       <c r="C8" s="58"/>
@@ -6579,7 +6708,7 @@
       <c r="Q8" s="58"/>
       <c r="R8" s="58"/>
     </row>
-    <row r="9" ht="14.45" customHeight="1">
+    <row r="9" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="58"/>
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
@@ -6599,7 +6728,7 @@
       <c r="Q9" s="58"/>
       <c r="R9" s="58"/>
     </row>
-    <row r="10" ht="14.45" customHeight="1">
+    <row r="10" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="58"/>
       <c r="B10" s="58"/>
       <c r="C10" s="58"/>
@@ -6620,8 +6749,9 @@
       <c r="R10" s="58"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930599999999998" right="0.69930599999999998" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6629,193 +6759,191 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="59" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="59" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="59" customWidth="1"/>
-    <col min="4" max="4" width="23.25" style="59" customWidth="1"/>
-    <col min="5" max="5" width="25.75" style="59" customWidth="1"/>
-    <col min="6" max="6" width="19.75" style="59" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="59" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="59" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="59" customWidth="1"/>
-    <col min="10" max="10" width="9" style="59" customWidth="1"/>
-    <col min="11" max="11" width="9" style="59" customWidth="1"/>
-    <col min="12" max="256" width="9" style="59" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="59" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="59" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="59" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="59" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="59" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="59" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="59" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="59" customWidth="1"/>
+    <col min="10" max="256" width="9" style="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="60">
+    <row r="1" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="62"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="63">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="87"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B2" t="s" s="63">
+      <c r="B2" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C2" t="s" s="64">
+      <c r="C2" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="D2" t="s" s="63">
+      <c r="D2" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="E2" t="s" s="63">
+      <c r="E2" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="F2" t="s" s="63">
+      <c r="F2" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="G2" t="s" s="63">
+      <c r="G2" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="H2" t="s" s="63">
+      <c r="H2" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="I2" t="s" s="63">
+      <c r="I2" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="J2" t="s" s="63">
+      <c r="J2" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="K2" t="s" s="64">
+      <c r="K2" s="61" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="72"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="72"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="72"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="74"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="72"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="72"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="72"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="72"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="73"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="72"/>
-    </row>
-    <row r="11" ht="14" customHeight="1">
-      <c r="A11" s="75"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="77"/>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="68"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="84"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="68"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="68"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="68"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="83"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="68"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="68"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="68"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="84"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="68"/>
+    </row>
+    <row r="11" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="69"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6825,8 +6953,9 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6834,103 +6963,101 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="78" customWidth="1"/>
-    <col min="2" max="2" width="6.25" style="78" customWidth="1"/>
-    <col min="3" max="3" width="6.25" style="78" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="78" customWidth="1"/>
-    <col min="5" max="5" width="32.75" style="78" customWidth="1"/>
-    <col min="6" max="6" width="4.75" style="78" customWidth="1"/>
-    <col min="7" max="7" width="57.25" style="78" customWidth="1"/>
-    <col min="8" max="8" width="16.75" style="78" customWidth="1"/>
-    <col min="9" max="9" width="8" style="78" customWidth="1"/>
-    <col min="10" max="10" width="6.25" style="78" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="78" customWidth="1"/>
-    <col min="12" max="12" width="8" style="78" customWidth="1"/>
-    <col min="13" max="13" width="32.75" style="78" customWidth="1"/>
-    <col min="14" max="256" width="39.5" style="78" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="72" customWidth="1"/>
+    <col min="2" max="3" width="6.1640625" style="72" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="72" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="72" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="72" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" style="72" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="72" customWidth="1"/>
+    <col min="9" max="9" width="8" style="72" customWidth="1"/>
+    <col min="10" max="11" width="6.1640625" style="72" customWidth="1"/>
+    <col min="12" max="12" width="8" style="72" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" style="72" customWidth="1"/>
+    <col min="14" max="256" width="39.5" style="72" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="8.5" customHeight="1">
-      <c r="A1" t="s" s="79">
+    <row r="1" spans="1:13" ht="8.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="81"/>
-    </row>
-    <row r="2" ht="10" customHeight="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="47">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
+    </row>
+    <row r="2" spans="1:13" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="91"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="93"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="B3" t="s" s="47">
+      <c r="B3" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C3" t="s" s="47">
+      <c r="C3" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="D3" t="s" s="47">
+      <c r="D3" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="E3" t="s" s="47">
+      <c r="E3" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="F3" t="s" s="47">
+      <c r="F3" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="G3" t="s" s="47">
+      <c r="G3" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="H3" t="s" s="47">
+      <c r="H3" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="I3" t="s" s="47">
+      <c r="I3" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="J3" t="s" s="47">
+      <c r="J3" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="K3" t="s" s="47">
+      <c r="K3" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="L3" t="s" s="47">
+      <c r="L3" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="M3" t="s" s="47">
+      <c r="M3" s="47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51"/>
@@ -6945,7 +7072,7 @@
       <c r="L4" s="51"/>
       <c r="M4" s="52"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="51"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
@@ -6960,7 +7087,7 @@
       <c r="L5" s="51"/>
       <c r="M5" s="52"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -6975,7 +7102,7 @@
       <c r="L6" s="51"/>
       <c r="M6" s="51"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -6990,7 +7117,7 @@
       <c r="L7" s="51"/>
       <c r="M7" s="52"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -7005,7 +7132,7 @@
       <c r="L8" s="51"/>
       <c r="M8" s="52"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row r="9" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -7020,7 +7147,7 @@
       <c r="L9" s="51"/>
       <c r="M9" s="51"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
+    <row r="10" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
@@ -7035,7 +7162,7 @@
       <c r="L10" s="51"/>
       <c r="M10" s="51"/>
     </row>
-    <row r="11" ht="16" customHeight="1">
+    <row r="11" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
@@ -7050,7 +7177,7 @@
       <c r="L11" s="51"/>
       <c r="M11" s="51"/>
     </row>
-    <row r="12" ht="16" customHeight="1">
+    <row r="12" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
@@ -7065,7 +7192,7 @@
       <c r="L12" s="51"/>
       <c r="M12" s="51"/>
     </row>
-    <row r="13" ht="16" customHeight="1">
+    <row r="13" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
@@ -7080,7 +7207,7 @@
       <c r="L13" s="51"/>
       <c r="M13" s="51"/>
     </row>
-    <row r="14" ht="16" customHeight="1">
+    <row r="14" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
@@ -7095,7 +7222,7 @@
       <c r="L14" s="51"/>
       <c r="M14" s="51"/>
     </row>
-    <row r="15" ht="16" customHeight="1">
+    <row r="15" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -7110,7 +7237,7 @@
       <c r="L15" s="51"/>
       <c r="M15" s="51"/>
     </row>
-    <row r="16" ht="16" customHeight="1">
+    <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -7129,8 +7256,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
-  <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930599999999998" right="0.69930599999999998" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7138,103 +7266,771 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="85" customWidth="1"/>
-    <col min="2" max="2" width="6.25" style="85" customWidth="1"/>
-    <col min="3" max="3" width="6.25" style="85" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="85" customWidth="1"/>
-    <col min="5" max="5" width="32.75" style="85" customWidth="1"/>
-    <col min="6" max="6" width="4.75" style="85" customWidth="1"/>
-    <col min="7" max="7" width="57.25" style="85" customWidth="1"/>
-    <col min="8" max="8" width="16.75" style="85" customWidth="1"/>
-    <col min="9" max="9" width="8" style="85" customWidth="1"/>
-    <col min="10" max="10" width="6.25" style="85" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="85" customWidth="1"/>
-    <col min="12" max="12" width="8" style="85" customWidth="1"/>
-    <col min="13" max="13" width="32.75" style="85" customWidth="1"/>
-    <col min="14" max="256" width="39.5" style="85" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="73" customWidth="1"/>
+    <col min="2" max="3" width="6.1640625" style="73" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="73" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="73" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="73" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" style="73" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="73" customWidth="1"/>
+    <col min="9" max="9" width="8" style="73" customWidth="1"/>
+    <col min="10" max="11" width="6.1640625" style="73" customWidth="1"/>
+    <col min="12" max="12" width="8" style="73" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" style="73" customWidth="1"/>
+    <col min="14" max="256" width="39.5" style="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="8.5" customHeight="1">
-      <c r="A1" t="s" s="79">
+    <row r="1" spans="1:13" ht="8.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="81"/>
-    </row>
-    <row r="2" ht="10" customHeight="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="47">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
+    </row>
+    <row r="2" spans="1:13" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="91"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="93"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="B3" t="s" s="47">
+      <c r="B3" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C3" t="s" s="47">
+      <c r="C3" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="D3" t="s" s="47">
+      <c r="D3" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="E3" t="s" s="47">
+      <c r="E3" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="F3" t="s" s="47">
+      <c r="F3" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="G3" t="s" s="47">
+      <c r="G3" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="H3" t="s" s="47">
+      <c r="H3" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="I3" t="s" s="47">
+      <c r="I3" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="J3" t="s" s="47">
+      <c r="J3" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="K3" t="s" s="47">
+      <c r="K3" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="L3" t="s" s="47">
+      <c r="L3" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="M3" t="s" s="47">
+      <c r="M3" s="47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" spans="1:13" s="97" customFormat="1" ht="409" x14ac:dyDescent="0.15">
+      <c r="A4" s="94">
+        <v>2</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="95" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="94"/>
+      <c r="G4" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="94" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="94" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="M4" s="96"/>
+    </row>
+    <row r="5" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="52"/>
+    </row>
+    <row r="6" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+    </row>
+    <row r="7" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="52"/>
+    </row>
+    <row r="8" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
+    </row>
+    <row r="9" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+    </row>
+    <row r="10" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+    </row>
+    <row r="11" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+    </row>
+    <row r="12" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+    </row>
+    <row r="13" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+    </row>
+    <row r="14" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+    </row>
+    <row r="15" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+    </row>
+    <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930599999999998" right="0.69930599999999998" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" style="74" customWidth="1"/>
+    <col min="2" max="3" width="6.1640625" style="74" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="74" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="74" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="74" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" style="74" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="74" customWidth="1"/>
+    <col min="9" max="9" width="8" style="74" customWidth="1"/>
+    <col min="10" max="11" width="6.1640625" style="74" customWidth="1"/>
+    <col min="12" max="12" width="8" style="74" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" style="74" customWidth="1"/>
+    <col min="14" max="256" width="39.5" style="74" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="8.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
+    </row>
+    <row r="2" spans="1:13" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="91"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="93"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="97" customFormat="1" ht="409" x14ac:dyDescent="0.15">
+      <c r="A4" s="94">
+        <v>2</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="95" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="94"/>
+      <c r="G4" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="94" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="94" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="M4" s="96"/>
+    </row>
+    <row r="5" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="52"/>
+    </row>
+    <row r="6" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+    </row>
+    <row r="7" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="52"/>
+    </row>
+    <row r="8" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
+    </row>
+    <row r="9" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+    </row>
+    <row r="10" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+    </row>
+    <row r="11" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+    </row>
+    <row r="12" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+    </row>
+    <row r="13" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+    </row>
+    <row r="14" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+    </row>
+    <row r="15" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+    </row>
+    <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930599999999998" right="0.69930599999999998" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" style="75" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="75" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="75" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="75" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="75" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="75" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" style="75" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="75" customWidth="1"/>
+    <col min="9" max="9" width="8" style="75" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="75" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="75" customWidth="1"/>
+    <col min="12" max="12" width="8" style="75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" style="75" customWidth="1"/>
+    <col min="14" max="256" width="39.5" style="75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="8.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
+    </row>
+    <row r="2" spans="1:13" ht="10" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="91"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="93"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51"/>
@@ -7249,7 +8045,7 @@
       <c r="L4" s="51"/>
       <c r="M4" s="52"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="51"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
@@ -7264,7 +8060,7 @@
       <c r="L5" s="51"/>
       <c r="M5" s="52"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -7279,7 +8075,7 @@
       <c r="L6" s="51"/>
       <c r="M6" s="51"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -7294,7 +8090,7 @@
       <c r="L7" s="51"/>
       <c r="M7" s="52"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -7309,7 +8105,7 @@
       <c r="L8" s="51"/>
       <c r="M8" s="52"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row r="9" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -7324,7 +8120,7 @@
       <c r="L9" s="51"/>
       <c r="M9" s="51"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
+    <row r="10" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
@@ -7339,7 +8135,7 @@
       <c r="L10" s="51"/>
       <c r="M10" s="51"/>
     </row>
-    <row r="11" ht="16" customHeight="1">
+    <row r="11" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
@@ -7354,7 +8150,7 @@
       <c r="L11" s="51"/>
       <c r="M11" s="51"/>
     </row>
-    <row r="12" ht="16" customHeight="1">
+    <row r="12" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
@@ -7369,7 +8165,7 @@
       <c r="L12" s="51"/>
       <c r="M12" s="51"/>
     </row>
-    <row r="13" ht="16" customHeight="1">
+    <row r="13" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
@@ -7384,7 +8180,7 @@
       <c r="L13" s="51"/>
       <c r="M13" s="51"/>
     </row>
-    <row r="14" ht="16" customHeight="1">
+    <row r="14" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
@@ -7399,7 +8195,7 @@
       <c r="L14" s="51"/>
       <c r="M14" s="51"/>
     </row>
-    <row r="15" ht="16" customHeight="1">
+    <row r="15" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -7414,7 +8210,7 @@
       <c r="L15" s="51"/>
       <c r="M15" s="51"/>
     </row>
-    <row r="16" ht="16" customHeight="1">
+    <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -7433,616 +8229,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
-  <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="4.75" style="86" customWidth="1"/>
-    <col min="2" max="2" width="6.25" style="86" customWidth="1"/>
-    <col min="3" max="3" width="6.25" style="86" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="86" customWidth="1"/>
-    <col min="5" max="5" width="32.75" style="86" customWidth="1"/>
-    <col min="6" max="6" width="4.75" style="86" customWidth="1"/>
-    <col min="7" max="7" width="57.25" style="86" customWidth="1"/>
-    <col min="8" max="8" width="16.75" style="86" customWidth="1"/>
-    <col min="9" max="9" width="8" style="86" customWidth="1"/>
-    <col min="10" max="10" width="6.25" style="86" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="86" customWidth="1"/>
-    <col min="12" max="12" width="8" style="86" customWidth="1"/>
-    <col min="13" max="13" width="32.75" style="86" customWidth="1"/>
-    <col min="14" max="256" width="39.5" style="86" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="8.5" customHeight="1">
-      <c r="A1" t="s" s="79">
-        <v>91</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="81"/>
-    </row>
-    <row r="2" ht="10" customHeight="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="47">
-        <v>92</v>
-      </c>
-      <c r="B3" t="s" s="47">
-        <v>67</v>
-      </c>
-      <c r="C3" t="s" s="47">
-        <v>93</v>
-      </c>
-      <c r="D3" t="s" s="47">
-        <v>94</v>
-      </c>
-      <c r="E3" t="s" s="47">
-        <v>95</v>
-      </c>
-      <c r="F3" t="s" s="47">
-        <v>96</v>
-      </c>
-      <c r="G3" t="s" s="47">
-        <v>97</v>
-      </c>
-      <c r="H3" t="s" s="47">
-        <v>68</v>
-      </c>
-      <c r="I3" t="s" s="47">
-        <v>98</v>
-      </c>
-      <c r="J3" t="s" s="47">
-        <v>70</v>
-      </c>
-      <c r="K3" t="s" s="47">
-        <v>99</v>
-      </c>
-      <c r="L3" t="s" s="47">
-        <v>100</v>
-      </c>
-      <c r="M3" t="s" s="47">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="52"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="52"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-    </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-    </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-    </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-    </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-    </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-    </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M2"/>
-  </mergeCells>
-  <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="4.75" style="87" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="87" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="87" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="87" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="87" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="87" customWidth="1"/>
-    <col min="7" max="7" width="57.25" style="87" customWidth="1"/>
-    <col min="8" max="8" width="16.75" style="87" customWidth="1"/>
-    <col min="9" max="9" width="8" style="87" customWidth="1"/>
-    <col min="10" max="10" width="7.75" style="87" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="87" customWidth="1"/>
-    <col min="12" max="12" width="8" style="87" customWidth="1"/>
-    <col min="13" max="13" width="32.75" style="87" customWidth="1"/>
-    <col min="14" max="256" width="39.5" style="87" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="8.5" customHeight="1">
-      <c r="A1" t="s" s="79">
-        <v>91</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="81"/>
-    </row>
-    <row r="2" ht="10" customHeight="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="47">
-        <v>92</v>
-      </c>
-      <c r="B3" t="s" s="47">
-        <v>67</v>
-      </c>
-      <c r="C3" t="s" s="47">
-        <v>93</v>
-      </c>
-      <c r="D3" t="s" s="47">
-        <v>94</v>
-      </c>
-      <c r="E3" t="s" s="47">
-        <v>95</v>
-      </c>
-      <c r="F3" t="s" s="47">
-        <v>96</v>
-      </c>
-      <c r="G3" t="s" s="47">
-        <v>97</v>
-      </c>
-      <c r="H3" t="s" s="47">
-        <v>68</v>
-      </c>
-      <c r="I3" t="s" s="47">
-        <v>98</v>
-      </c>
-      <c r="J3" t="s" s="47">
-        <v>70</v>
-      </c>
-      <c r="K3" t="s" s="47">
-        <v>99</v>
-      </c>
-      <c r="L3" t="s" s="47">
-        <v>100</v>
-      </c>
-      <c r="M3" t="s" s="47">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="52"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="52"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-    </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-    </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-    </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-    </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-    </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-    </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M2"/>
-  </mergeCells>
-  <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930599999999998" right="0.69930599999999998" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -8050,233 +8239,234 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17" style="88" customWidth="1"/>
-    <col min="2" max="2" width="43.25" style="88" customWidth="1"/>
-    <col min="3" max="3" width="13" style="88" customWidth="1"/>
-    <col min="4" max="4" width="9" style="88" customWidth="1"/>
-    <col min="5" max="5" width="12" style="88" customWidth="1"/>
-    <col min="6" max="6" width="20.75" style="88" customWidth="1"/>
-    <col min="7" max="7" width="42.25" style="88" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="88" customWidth="1"/>
-    <col min="9" max="256" width="9" style="88" customWidth="1"/>
+    <col min="1" max="1" width="17" style="76" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" style="76" customWidth="1"/>
+    <col min="3" max="3" width="13" style="76" customWidth="1"/>
+    <col min="4" max="4" width="9" style="76" customWidth="1"/>
+    <col min="5" max="5" width="12" style="76" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="76" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" style="76" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="76" customWidth="1"/>
+    <col min="9" max="256" width="9" style="76" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.45" customHeight="1">
-      <c r="A1" t="s" s="89">
+    <row r="1" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="B1" t="s" s="89">
+      <c r="B1" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="C1" t="s" s="89">
+      <c r="C1" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="D1" t="s" s="89">
+      <c r="D1" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="E1" t="s" s="89">
+      <c r="E1" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="F1" t="s" s="89">
+      <c r="F1" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="G1" t="s" s="89">
+      <c r="G1" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="H1" t="s" s="89">
+      <c r="H1" s="77" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" ht="14.45" customHeight="1">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-    </row>
-    <row r="3" ht="14.45" customHeight="1">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-    </row>
-    <row r="4" ht="14.45" customHeight="1">
-      <c r="A4" s="90"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-    </row>
-    <row r="5" ht="14.45" customHeight="1">
-      <c r="A5" s="90"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-    </row>
-    <row r="6" ht="14.45" customHeight="1">
-      <c r="A6" s="90"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-    </row>
-    <row r="7" ht="14.45" customHeight="1">
-      <c r="A7" s="90"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-    </row>
-    <row r="8" ht="14.45" customHeight="1">
-      <c r="A8" s="90"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-    </row>
-    <row r="9" ht="14.45" customHeight="1">
-      <c r="A9" s="90"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-    </row>
-    <row r="10" ht="14.45" customHeight="1">
-      <c r="A10" s="90"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-    </row>
-    <row r="11" ht="14.45" customHeight="1">
-      <c r="A11" s="90"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-    </row>
-    <row r="12" ht="14.45" customHeight="1">
-      <c r="A12" s="90"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-    </row>
-    <row r="13" ht="14.45" customHeight="1">
-      <c r="A13" s="90"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-    </row>
-    <row r="14" ht="14.45" customHeight="1">
-      <c r="A14" s="90"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-    </row>
-    <row r="15" ht="14.45" customHeight="1">
-      <c r="A15" s="90"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-    </row>
-    <row r="16" ht="14.45" customHeight="1">
-      <c r="A16" s="90"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-    </row>
-    <row r="17" ht="14.45" customHeight="1">
-      <c r="A17" s="90"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-    </row>
-    <row r="18" ht="14.45" customHeight="1">
-      <c r="A18" s="90"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-    </row>
-    <row r="19" ht="14.45" customHeight="1">
-      <c r="A19" s="90"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
+    <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="78"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="78"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="78"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="78"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+    </row>
+    <row r="13" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="78"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="78"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+    </row>
+    <row r="16" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="78"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+    </row>
+    <row r="17" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="78"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+    </row>
+    <row r="18" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="78"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+    </row>
+    <row r="19" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930599999999998" right="0.69930599999999998" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
